--- a/Doc/MAP Design.xlsx
+++ b/Doc/MAP Design.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="15390" windowHeight="7740"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="15390" windowHeight="7740" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Task" sheetId="12" r:id="rId1"/>
-    <sheet name="CIMN00" sheetId="4" r:id="rId2"/>
-    <sheet name="CICA00" sheetId="5" r:id="rId3"/>
-    <sheet name="CICA01" sheetId="1" r:id="rId4"/>
-    <sheet name="CICA02" sheetId="9" r:id="rId5"/>
-    <sheet name="CICS00" sheetId="10" r:id="rId6"/>
-    <sheet name="CICS01" sheetId="11" r:id="rId7"/>
+    <sheet name="CIMN00" sheetId="4" r:id="rId1"/>
+    <sheet name="CICA00" sheetId="5" r:id="rId2"/>
+    <sheet name="CICA01" sheetId="1" r:id="rId3"/>
+    <sheet name="CICA02" sheetId="9" r:id="rId4"/>
+    <sheet name="CICS00" sheetId="10" r:id="rId5"/>
+    <sheet name="CICS01" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1796" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="45">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -201,111 +200,12 @@
     <t>Q</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>CIMN00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kevin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CICA00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CICA01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CICA02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CICS00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CICS01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Map Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Developer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>航</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>庚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鹏</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请授信主菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户服务主菜单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户详细信息输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>客户简要信息输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VBSD30.VBS.RND.MAP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAP Source Lib</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compile Map</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VBSD30.VBS.RND.JCL(COMMAPVB)</t>
-  </si>
-  <si>
-    <t>Map Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度查询输入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,7 +230,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -398,28 +298,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -462,20 +347,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -549,6 +436,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -583,6 +471,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -758,141 +647,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:D16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="3.125" customWidth="1"/>
-    <col min="2" max="2" width="10.25" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="21.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:4">
-      <c r="B3" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4">
-      <c r="B4" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4">
-      <c r="B5" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4">
-      <c r="B6" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4">
-      <c r="B7" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4">
-      <c r="B12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4">
-      <c r="B13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4">
-      <c r="B15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4">
-      <c r="B16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AC13" sqref="AC13:AT13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="80" width="1.875" customWidth="1"/>
     <col min="81" max="170" width="2.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.15">
       <c r="K1">
         <v>1</v>
       </c>
@@ -915,7 +684,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:80">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.15">
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -1154,7 +923,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:80">
+    <row r="3" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1312,7 +1081,7 @@
       <c r="CA3" s="3"/>
       <c r="CB3" s="13"/>
     </row>
-    <row r="4" spans="1:80">
+    <row r="4" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1481,7 +1250,7 @@
       <c r="CA4" s="3"/>
       <c r="CB4" s="4"/>
     </row>
-    <row r="5" spans="1:80">
+    <row r="5" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1723,7 +1492,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:80">
+    <row r="6" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1807,7 +1576,7 @@
       <c r="CA6" s="3"/>
       <c r="CB6" s="4"/>
     </row>
-    <row r="7" spans="1:80">
+    <row r="7" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1904,7 +1673,7 @@
       <c r="CA7" s="3"/>
       <c r="CB7" s="4"/>
     </row>
-    <row r="8" spans="1:80">
+    <row r="8" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1988,7 +1757,7 @@
       <c r="CA8" s="3"/>
       <c r="CB8" s="4"/>
     </row>
-    <row r="9" spans="1:80">
+    <row r="9" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -2129,7 +1898,7 @@
       <c r="CA9" s="3"/>
       <c r="CB9" s="4"/>
     </row>
-    <row r="10" spans="1:80">
+    <row r="10" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -2184,7 +1953,7 @@
       <c r="CA10" s="3"/>
       <c r="CB10" s="4"/>
     </row>
-    <row r="11" spans="1:80">
+    <row r="11" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -2309,7 +2078,7 @@
       <c r="CA11" s="3"/>
       <c r="CB11" s="4"/>
     </row>
-    <row r="12" spans="1:80">
+    <row r="12" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
@@ -2389,7 +2158,7 @@
       <c r="CA12" s="3"/>
       <c r="CB12" s="4"/>
     </row>
-    <row r="13" spans="1:80">
+    <row r="13" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
@@ -2512,7 +2281,7 @@
       <c r="CA13" s="3"/>
       <c r="CB13" s="4"/>
     </row>
-    <row r="14" spans="1:80">
+    <row r="14" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>12</v>
       </c>
@@ -2595,7 +2364,7 @@
       <c r="CA14" s="3"/>
       <c r="CB14" s="4"/>
     </row>
-    <row r="15" spans="1:80">
+    <row r="15" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>13</v>
       </c>
@@ -2678,7 +2447,7 @@
       <c r="CA15" s="3"/>
       <c r="CB15" s="4"/>
     </row>
-    <row r="16" spans="1:80">
+    <row r="16" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>14</v>
       </c>
@@ -2761,7 +2530,7 @@
       <c r="CA16" s="3"/>
       <c r="CB16" s="4"/>
     </row>
-    <row r="17" spans="1:80">
+    <row r="17" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>15</v>
       </c>
@@ -2844,7 +2613,7 @@
       <c r="CA17" s="3"/>
       <c r="CB17" s="4"/>
     </row>
-    <row r="18" spans="1:80">
+    <row r="18" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>16</v>
       </c>
@@ -2927,7 +2696,7 @@
       <c r="CA18" s="3"/>
       <c r="CB18" s="4"/>
     </row>
-    <row r="19" spans="1:80">
+    <row r="19" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3010,7 +2779,7 @@
       <c r="CA19" s="3"/>
       <c r="CB19" s="4"/>
     </row>
-    <row r="20" spans="1:80">
+    <row r="20" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3093,7 +2862,7 @@
       <c r="CA20" s="3"/>
       <c r="CB20" s="4"/>
     </row>
-    <row r="21" spans="1:80">
+    <row r="21" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3177,7 +2946,7 @@
       <c r="CA21" s="3"/>
       <c r="CB21" s="4"/>
     </row>
-    <row r="22" spans="1:80">
+    <row r="22" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3261,7 +3030,7 @@
       <c r="CA22" s="3"/>
       <c r="CB22" s="4"/>
     </row>
-    <row r="23" spans="1:80">
+    <row r="23" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3345,7 +3114,7 @@
       <c r="CA23" s="3"/>
       <c r="CB23" s="4"/>
     </row>
-    <row r="24" spans="1:80">
+    <row r="24" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3429,7 +3198,7 @@
       <c r="CA24" s="3"/>
       <c r="CB24" s="4"/>
     </row>
-    <row r="25" spans="1:80">
+    <row r="25" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3547,7 +3316,7 @@
       <c r="CA25" s="3"/>
       <c r="CB25" s="4"/>
     </row>
-    <row r="26" spans="1:80">
+    <row r="26" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3704,22 +3473,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="CE6" sqref="CE6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="80" width="1.875" customWidth="1"/>
     <col min="81" max="170" width="2.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.15">
       <c r="K1">
         <v>1</v>
       </c>
@@ -3742,7 +3511,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:80">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.15">
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -3981,7 +3750,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:80">
+    <row r="3" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4139,7 +3908,7 @@
       <c r="CA3" s="3"/>
       <c r="CB3" s="13"/>
     </row>
-    <row r="4" spans="1:80">
+    <row r="4" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4308,7 +4077,7 @@
       <c r="CA4" s="3"/>
       <c r="CB4" s="4"/>
     </row>
-    <row r="5" spans="1:80">
+    <row r="5" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4550,7 +4319,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:80">
+    <row r="6" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4634,7 +4403,7 @@
       <c r="CA6" s="3"/>
       <c r="CB6" s="4"/>
     </row>
-    <row r="7" spans="1:80">
+    <row r="7" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4748,7 +4517,7 @@
       <c r="CA7" s="3"/>
       <c r="CB7" s="4"/>
     </row>
-    <row r="8" spans="1:80">
+    <row r="8" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4832,7 +4601,7 @@
       <c r="CA8" s="3"/>
       <c r="CB8" s="4"/>
     </row>
-    <row r="9" spans="1:80">
+    <row r="9" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4973,7 +4742,7 @@
       <c r="CA9" s="3"/>
       <c r="CB9" s="4"/>
     </row>
-    <row r="10" spans="1:80">
+    <row r="10" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5028,7 +4797,7 @@
       <c r="CA10" s="3"/>
       <c r="CB10" s="4"/>
     </row>
-    <row r="11" spans="1:80">
+    <row r="11" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5149,7 +4918,7 @@
       <c r="CA11" s="3"/>
       <c r="CB11" s="4"/>
     </row>
-    <row r="12" spans="1:80">
+    <row r="12" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5227,7 +4996,7 @@
       <c r="CA12" s="3"/>
       <c r="CB12" s="4"/>
     </row>
-    <row r="13" spans="1:80">
+    <row r="13" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
@@ -5353,7 +5122,7 @@
       <c r="CA13" s="3"/>
       <c r="CB13" s="4"/>
     </row>
-    <row r="14" spans="1:80">
+    <row r="14" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>12</v>
       </c>
@@ -5436,7 +5205,7 @@
       <c r="CA14" s="3"/>
       <c r="CB14" s="4"/>
     </row>
-    <row r="15" spans="1:80">
+    <row r="15" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>13</v>
       </c>
@@ -5567,7 +5336,7 @@
       <c r="CA15" s="3"/>
       <c r="CB15" s="4"/>
     </row>
-    <row r="16" spans="1:80">
+    <row r="16" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>14</v>
       </c>
@@ -5650,7 +5419,7 @@
       <c r="CA16" s="3"/>
       <c r="CB16" s="4"/>
     </row>
-    <row r="17" spans="1:80">
+    <row r="17" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>15</v>
       </c>
@@ -5783,7 +5552,7 @@
       <c r="CA17" s="3"/>
       <c r="CB17" s="4"/>
     </row>
-    <row r="18" spans="1:80">
+    <row r="18" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>16</v>
       </c>
@@ -5866,7 +5635,7 @@
       <c r="CA18" s="3"/>
       <c r="CB18" s="4"/>
     </row>
-    <row r="19" spans="1:80">
+    <row r="19" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>17</v>
       </c>
@@ -5991,7 +5760,7 @@
       <c r="CA19" s="3"/>
       <c r="CB19" s="4"/>
     </row>
-    <row r="20" spans="1:80">
+    <row r="20" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>18</v>
       </c>
@@ -6074,7 +5843,7 @@
       <c r="CA20" s="3"/>
       <c r="CB20" s="4"/>
     </row>
-    <row r="21" spans="1:80">
+    <row r="21" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>19</v>
       </c>
@@ -6158,7 +5927,7 @@
       <c r="CA21" s="3"/>
       <c r="CB21" s="4"/>
     </row>
-    <row r="22" spans="1:80">
+    <row r="22" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>20</v>
       </c>
@@ -6242,7 +6011,7 @@
       <c r="CA22" s="3"/>
       <c r="CB22" s="4"/>
     </row>
-    <row r="23" spans="1:80">
+    <row r="23" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>21</v>
       </c>
@@ -6326,7 +6095,7 @@
       <c r="CA23" s="3"/>
       <c r="CB23" s="4"/>
     </row>
-    <row r="24" spans="1:80">
+    <row r="24" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>22</v>
       </c>
@@ -6410,7 +6179,7 @@
       <c r="CA24" s="3"/>
       <c r="CB24" s="4"/>
     </row>
-    <row r="25" spans="1:80">
+    <row r="25" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>23</v>
       </c>
@@ -6528,7 +6297,7 @@
       <c r="CA25" s="3"/>
       <c r="CB25" s="4"/>
     </row>
-    <row r="26" spans="1:80">
+    <row r="26" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>24</v>
       </c>
@@ -6709,22 +6478,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:CB26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="80" width="1.875" customWidth="1"/>
     <col min="81" max="170" width="2.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:80">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.15">
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -6963,7 +6732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:80">
+    <row r="3" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7121,7 +6890,7 @@
       <c r="CA3" s="3"/>
       <c r="CB3" s="13"/>
     </row>
-    <row r="4" spans="1:80">
+    <row r="4" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7290,7 +7059,7 @@
       <c r="CA4" s="3"/>
       <c r="CB4" s="4"/>
     </row>
-    <row r="5" spans="1:80">
+    <row r="5" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -7532,7 +7301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:80">
+    <row r="6" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -7616,7 +7385,7 @@
       <c r="CA6" s="3"/>
       <c r="CB6" s="4"/>
     </row>
-    <row r="7" spans="1:80">
+    <row r="7" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -7786,7 +7555,7 @@
       <c r="CA7" s="3"/>
       <c r="CB7" s="4"/>
     </row>
-    <row r="8" spans="1:80">
+    <row r="8" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -7870,7 +7639,7 @@
       <c r="CA8" s="3"/>
       <c r="CB8" s="4"/>
     </row>
-    <row r="9" spans="1:80">
+    <row r="9" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -8022,7 +7791,7 @@
       <c r="CA9" s="3"/>
       <c r="CB9" s="4"/>
     </row>
-    <row r="10" spans="1:80">
+    <row r="10" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -8082,7 +7851,7 @@
       <c r="CA10" s="3"/>
       <c r="CB10" s="4"/>
     </row>
-    <row r="11" spans="1:80">
+    <row r="11" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -8220,7 +7989,7 @@
       <c r="CA11" s="3"/>
       <c r="CB11" s="4"/>
     </row>
-    <row r="12" spans="1:80">
+    <row r="12" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
@@ -8304,7 +8073,7 @@
       <c r="CA12" s="3"/>
       <c r="CB12" s="4"/>
     </row>
-    <row r="13" spans="1:80">
+    <row r="13" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
@@ -8388,7 +8157,7 @@
       <c r="CA13" s="3"/>
       <c r="CB13" s="4"/>
     </row>
-    <row r="14" spans="1:80">
+    <row r="14" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>12</v>
       </c>
@@ -8472,7 +8241,7 @@
       <c r="CA14" s="3"/>
       <c r="CB14" s="4"/>
     </row>
-    <row r="15" spans="1:80">
+    <row r="15" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>13</v>
       </c>
@@ -8556,7 +8325,7 @@
       <c r="CA15" s="3"/>
       <c r="CB15" s="4"/>
     </row>
-    <row r="16" spans="1:80">
+    <row r="16" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>14</v>
       </c>
@@ -8640,7 +8409,7 @@
       <c r="CA16" s="3"/>
       <c r="CB16" s="4"/>
     </row>
-    <row r="17" spans="1:80">
+    <row r="17" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>15</v>
       </c>
@@ -8724,7 +8493,7 @@
       <c r="CA17" s="3"/>
       <c r="CB17" s="4"/>
     </row>
-    <row r="18" spans="1:80">
+    <row r="18" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>16</v>
       </c>
@@ -8808,7 +8577,7 @@
       <c r="CA18" s="3"/>
       <c r="CB18" s="4"/>
     </row>
-    <row r="19" spans="1:80">
+    <row r="19" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>17</v>
       </c>
@@ -8892,7 +8661,7 @@
       <c r="CA19" s="3"/>
       <c r="CB19" s="4"/>
     </row>
-    <row r="20" spans="1:80">
+    <row r="20" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>18</v>
       </c>
@@ -8976,7 +8745,7 @@
       <c r="CA20" s="3"/>
       <c r="CB20" s="4"/>
     </row>
-    <row r="21" spans="1:80">
+    <row r="21" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>19</v>
       </c>
@@ -9060,7 +8829,7 @@
       <c r="CA21" s="3"/>
       <c r="CB21" s="4"/>
     </row>
-    <row r="22" spans="1:80">
+    <row r="22" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>20</v>
       </c>
@@ -9144,7 +8913,7 @@
       <c r="CA22" s="3"/>
       <c r="CB22" s="4"/>
     </row>
-    <row r="23" spans="1:80">
+    <row r="23" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>21</v>
       </c>
@@ -9228,7 +8997,7 @@
       <c r="CA23" s="3"/>
       <c r="CB23" s="4"/>
     </row>
-    <row r="24" spans="1:80">
+    <row r="24" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>22</v>
       </c>
@@ -9312,7 +9081,7 @@
       <c r="CA24" s="3"/>
       <c r="CB24" s="4"/>
     </row>
-    <row r="25" spans="1:80">
+    <row r="25" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>23</v>
       </c>
@@ -9430,7 +9199,7 @@
       <c r="CA25" s="3"/>
       <c r="CB25" s="4"/>
     </row>
-    <row r="26" spans="1:80">
+    <row r="26" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>24</v>
       </c>
@@ -9587,22 +9356,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="BJ18" sqref="BJ18"/>
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="80" width="1.875" customWidth="1"/>
     <col min="81" max="170" width="2.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.15">
       <c r="K1">
         <v>1</v>
       </c>
@@ -9625,7 +9394,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:80">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.15">
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -9864,7 +9633,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:80">
+    <row r="3" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -10022,7 +9791,7 @@
       <c r="CA3" s="3"/>
       <c r="CB3" s="13"/>
     </row>
-    <row r="4" spans="1:80">
+    <row r="4" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -10191,7 +9960,7 @@
       <c r="CA4" s="3"/>
       <c r="CB4" s="4"/>
     </row>
-    <row r="5" spans="1:80">
+    <row r="5" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -10433,7 +10202,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:80">
+    <row r="6" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -10517,7 +10286,7 @@
       <c r="CA6" s="3"/>
       <c r="CB6" s="4"/>
     </row>
-    <row r="7" spans="1:80">
+    <row r="7" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -10601,7 +10370,7 @@
       <c r="CA7" s="3"/>
       <c r="CB7" s="4"/>
     </row>
-    <row r="8" spans="1:80">
+    <row r="8" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -10685,7 +10454,7 @@
       <c r="CA8" s="3"/>
       <c r="CB8" s="4"/>
     </row>
-    <row r="9" spans="1:80">
+    <row r="9" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -10769,7 +10538,7 @@
       <c r="CA9" s="3"/>
       <c r="CB9" s="4"/>
     </row>
-    <row r="10" spans="1:80">
+    <row r="10" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -10829,7 +10598,7 @@
       <c r="CA10" s="3"/>
       <c r="CB10" s="4"/>
     </row>
-    <row r="11" spans="1:80">
+    <row r="11" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -10913,7 +10682,7 @@
       <c r="CA11" s="3"/>
       <c r="CB11" s="4"/>
     </row>
-    <row r="12" spans="1:80">
+    <row r="12" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
@@ -10997,7 +10766,7 @@
       <c r="CA12" s="3"/>
       <c r="CB12" s="4"/>
     </row>
-    <row r="13" spans="1:80">
+    <row r="13" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
@@ -11081,7 +10850,7 @@
       <c r="CA13" s="3"/>
       <c r="CB13" s="4"/>
     </row>
-    <row r="14" spans="1:80">
+    <row r="14" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>12</v>
       </c>
@@ -11165,7 +10934,7 @@
       <c r="CA14" s="3"/>
       <c r="CB14" s="4"/>
     </row>
-    <row r="15" spans="1:80">
+    <row r="15" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>13</v>
       </c>
@@ -11249,7 +11018,7 @@
       <c r="CA15" s="3"/>
       <c r="CB15" s="4"/>
     </row>
-    <row r="16" spans="1:80">
+    <row r="16" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>14</v>
       </c>
@@ -11333,7 +11102,7 @@
       <c r="CA16" s="3"/>
       <c r="CB16" s="4"/>
     </row>
-    <row r="17" spans="1:80">
+    <row r="17" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>15</v>
       </c>
@@ -11417,7 +11186,7 @@
       <c r="CA17" s="3"/>
       <c r="CB17" s="4"/>
     </row>
-    <row r="18" spans="1:80">
+    <row r="18" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>16</v>
       </c>
@@ -11501,7 +11270,7 @@
       <c r="CA18" s="3"/>
       <c r="CB18" s="4"/>
     </row>
-    <row r="19" spans="1:80">
+    <row r="19" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>17</v>
       </c>
@@ -11585,7 +11354,7 @@
       <c r="CA19" s="3"/>
       <c r="CB19" s="4"/>
     </row>
-    <row r="20" spans="1:80">
+    <row r="20" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>18</v>
       </c>
@@ -11669,7 +11438,7 @@
       <c r="CA20" s="3"/>
       <c r="CB20" s="4"/>
     </row>
-    <row r="21" spans="1:80">
+    <row r="21" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>19</v>
       </c>
@@ -11753,7 +11522,7 @@
       <c r="CA21" s="3"/>
       <c r="CB21" s="4"/>
     </row>
-    <row r="22" spans="1:80">
+    <row r="22" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>20</v>
       </c>
@@ -11837,7 +11606,7 @@
       <c r="CA22" s="3"/>
       <c r="CB22" s="4"/>
     </row>
-    <row r="23" spans="1:80">
+    <row r="23" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>21</v>
       </c>
@@ -11921,7 +11690,7 @@
       <c r="CA23" s="3"/>
       <c r="CB23" s="4"/>
     </row>
-    <row r="24" spans="1:80">
+    <row r="24" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>22</v>
       </c>
@@ -12005,7 +11774,7 @@
       <c r="CA24" s="3"/>
       <c r="CB24" s="4"/>
     </row>
-    <row r="25" spans="1:80">
+    <row r="25" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>23</v>
       </c>
@@ -12123,7 +11892,7 @@
       <c r="CA25" s="3"/>
       <c r="CB25" s="4"/>
     </row>
-    <row r="26" spans="1:80">
+    <row r="26" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>24</v>
       </c>
@@ -12280,22 +12049,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AO15" sqref="AO15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="80" width="1.875" customWidth="1"/>
     <col min="81" max="170" width="2.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.15">
       <c r="K1">
         <v>1</v>
       </c>
@@ -12318,7 +12087,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:80">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.15">
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -12557,7 +12326,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:80">
+    <row r="3" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -12715,7 +12484,7 @@
       <c r="CA3" s="3"/>
       <c r="CB3" s="13"/>
     </row>
-    <row r="4" spans="1:80">
+    <row r="4" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -12884,7 +12653,7 @@
       <c r="CA4" s="3"/>
       <c r="CB4" s="4"/>
     </row>
-    <row r="5" spans="1:80">
+    <row r="5" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -13126,7 +12895,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:80">
+    <row r="6" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -13210,7 +12979,7 @@
       <c r="CA6" s="3"/>
       <c r="CB6" s="4"/>
     </row>
-    <row r="7" spans="1:80">
+    <row r="7" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -13322,7 +13091,7 @@
       <c r="CA7" s="3"/>
       <c r="CB7" s="4"/>
     </row>
-    <row r="8" spans="1:80">
+    <row r="8" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -13406,7 +13175,7 @@
       <c r="CA8" s="3"/>
       <c r="CB8" s="4"/>
     </row>
-    <row r="9" spans="1:80">
+    <row r="9" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -13547,7 +13316,7 @@
       <c r="CA9" s="3"/>
       <c r="CB9" s="4"/>
     </row>
-    <row r="10" spans="1:80">
+    <row r="10" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -13602,7 +13371,7 @@
       <c r="CA10" s="3"/>
       <c r="CB10" s="4"/>
     </row>
-    <row r="11" spans="1:80">
+    <row r="11" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -13722,7 +13491,7 @@
       <c r="CA11" s="3"/>
       <c r="CB11" s="4"/>
     </row>
-    <row r="12" spans="1:80">
+    <row r="12" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
@@ -13800,7 +13569,7 @@
       <c r="CA12" s="3"/>
       <c r="CB12" s="4"/>
     </row>
-    <row r="13" spans="1:80">
+    <row r="13" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
@@ -13876,7 +13645,7 @@
       <c r="CA13" s="3"/>
       <c r="CB13" s="4"/>
     </row>
-    <row r="14" spans="1:80">
+    <row r="14" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>12</v>
       </c>
@@ -13959,7 +13728,7 @@
       <c r="CA14" s="3"/>
       <c r="CB14" s="4"/>
     </row>
-    <row r="15" spans="1:80">
+    <row r="15" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>13</v>
       </c>
@@ -14042,7 +13811,7 @@
       <c r="CA15" s="3"/>
       <c r="CB15" s="4"/>
     </row>
-    <row r="16" spans="1:80">
+    <row r="16" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>14</v>
       </c>
@@ -14125,7 +13894,7 @@
       <c r="CA16" s="3"/>
       <c r="CB16" s="4"/>
     </row>
-    <row r="17" spans="1:80">
+    <row r="17" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>15</v>
       </c>
@@ -14208,7 +13977,7 @@
       <c r="CA17" s="3"/>
       <c r="CB17" s="4"/>
     </row>
-    <row r="18" spans="1:80">
+    <row r="18" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>16</v>
       </c>
@@ -14291,7 +14060,7 @@
       <c r="CA18" s="3"/>
       <c r="CB18" s="4"/>
     </row>
-    <row r="19" spans="1:80">
+    <row r="19" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>17</v>
       </c>
@@ -14372,7 +14141,7 @@
       <c r="CA19" s="3"/>
       <c r="CB19" s="4"/>
     </row>
-    <row r="20" spans="1:80">
+    <row r="20" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>18</v>
       </c>
@@ -14455,7 +14224,7 @@
       <c r="CA20" s="3"/>
       <c r="CB20" s="4"/>
     </row>
-    <row r="21" spans="1:80">
+    <row r="21" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>19</v>
       </c>
@@ -14539,7 +14308,7 @@
       <c r="CA21" s="3"/>
       <c r="CB21" s="4"/>
     </row>
-    <row r="22" spans="1:80">
+    <row r="22" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>20</v>
       </c>
@@ -14623,7 +14392,7 @@
       <c r="CA22" s="3"/>
       <c r="CB22" s="4"/>
     </row>
-    <row r="23" spans="1:80">
+    <row r="23" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>21</v>
       </c>
@@ -14707,7 +14476,7 @@
       <c r="CA23" s="3"/>
       <c r="CB23" s="4"/>
     </row>
-    <row r="24" spans="1:80">
+    <row r="24" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>22</v>
       </c>
@@ -14791,7 +14560,7 @@
       <c r="CA24" s="3"/>
       <c r="CB24" s="4"/>
     </row>
-    <row r="25" spans="1:80">
+    <row r="25" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>23</v>
       </c>
@@ -14909,7 +14678,7 @@
       <c r="CA25" s="3"/>
       <c r="CB25" s="4"/>
     </row>
-    <row r="26" spans="1:80">
+    <row r="26" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>24</v>
       </c>
@@ -15090,22 +14859,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CB26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AD20" sqref="AD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="2.625" customWidth="1"/>
     <col min="2" max="80" width="1.875" customWidth="1"/>
     <col min="81" max="170" width="2.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:80">
+    <row r="1" spans="1:80" x14ac:dyDescent="0.15">
       <c r="K1">
         <v>1</v>
       </c>
@@ -15128,7 +14897,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:80">
+    <row r="2" spans="1:80" x14ac:dyDescent="0.15">
       <c r="B2" s="1">
         <v>1</v>
       </c>
@@ -15367,7 +15136,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:80">
+    <row r="3" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -15525,7 +15294,7 @@
       <c r="CA3" s="3"/>
       <c r="CB3" s="13"/>
     </row>
-    <row r="4" spans="1:80">
+    <row r="4" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -15694,7 +15463,7 @@
       <c r="CA4" s="3"/>
       <c r="CB4" s="4"/>
     </row>
-    <row r="5" spans="1:80">
+    <row r="5" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>3</v>
       </c>
@@ -15936,7 +15705,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:80">
+    <row r="6" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>4</v>
       </c>
@@ -16020,7 +15789,7 @@
       <c r="CA6" s="3"/>
       <c r="CB6" s="4"/>
     </row>
-    <row r="7" spans="1:80">
+    <row r="7" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>5</v>
       </c>
@@ -16104,7 +15873,7 @@
       <c r="CA7" s="3"/>
       <c r="CB7" s="4"/>
     </row>
-    <row r="8" spans="1:80">
+    <row r="8" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>6</v>
       </c>
@@ -16188,7 +15957,7 @@
       <c r="CA8" s="3"/>
       <c r="CB8" s="4"/>
     </row>
-    <row r="9" spans="1:80">
+    <row r="9" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>7</v>
       </c>
@@ -16340,7 +16109,7 @@
       <c r="CA9" s="3"/>
       <c r="CB9" s="4"/>
     </row>
-    <row r="10" spans="1:80">
+    <row r="10" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>8</v>
       </c>
@@ -16400,7 +16169,7 @@
       <c r="CA10" s="3"/>
       <c r="CB10" s="4"/>
     </row>
-    <row r="11" spans="1:80">
+    <row r="11" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>9</v>
       </c>
@@ -16538,7 +16307,7 @@
       <c r="CA11" s="3"/>
       <c r="CB11" s="4"/>
     </row>
-    <row r="12" spans="1:80">
+    <row r="12" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>10</v>
       </c>
@@ -16622,7 +16391,7 @@
       <c r="CA12" s="3"/>
       <c r="CB12" s="4"/>
     </row>
-    <row r="13" spans="1:80">
+    <row r="13" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>11</v>
       </c>
@@ -16706,7 +16475,7 @@
       <c r="CA13" s="3"/>
       <c r="CB13" s="4"/>
     </row>
-    <row r="14" spans="1:80">
+    <row r="14" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>12</v>
       </c>
@@ -16790,7 +16559,7 @@
       <c r="CA14" s="3"/>
       <c r="CB14" s="4"/>
     </row>
-    <row r="15" spans="1:80">
+    <row r="15" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>13</v>
       </c>
@@ -16874,7 +16643,7 @@
       <c r="CA15" s="3"/>
       <c r="CB15" s="4"/>
     </row>
-    <row r="16" spans="1:80">
+    <row r="16" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>14</v>
       </c>
@@ -16958,7 +16727,7 @@
       <c r="CA16" s="3"/>
       <c r="CB16" s="4"/>
     </row>
-    <row r="17" spans="1:80">
+    <row r="17" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>15</v>
       </c>
@@ -17042,7 +16811,7 @@
       <c r="CA17" s="3"/>
       <c r="CB17" s="4"/>
     </row>
-    <row r="18" spans="1:80">
+    <row r="18" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>16</v>
       </c>
@@ -17126,7 +16895,7 @@
       <c r="CA18" s="3"/>
       <c r="CB18" s="4"/>
     </row>
-    <row r="19" spans="1:80">
+    <row r="19" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>17</v>
       </c>
@@ -17210,7 +16979,7 @@
       <c r="CA19" s="3"/>
       <c r="CB19" s="4"/>
     </row>
-    <row r="20" spans="1:80">
+    <row r="20" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>18</v>
       </c>
@@ -17294,7 +17063,7 @@
       <c r="CA20" s="3"/>
       <c r="CB20" s="4"/>
     </row>
-    <row r="21" spans="1:80">
+    <row r="21" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>19</v>
       </c>
@@ -17378,7 +17147,7 @@
       <c r="CA21" s="3"/>
       <c r="CB21" s="4"/>
     </row>
-    <row r="22" spans="1:80">
+    <row r="22" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>20</v>
       </c>
@@ -17462,7 +17231,7 @@
       <c r="CA22" s="3"/>
       <c r="CB22" s="4"/>
     </row>
-    <row r="23" spans="1:80">
+    <row r="23" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>21</v>
       </c>
@@ -17546,7 +17315,7 @@
       <c r="CA23" s="3"/>
       <c r="CB23" s="4"/>
     </row>
-    <row r="24" spans="1:80">
+    <row r="24" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>22</v>
       </c>
@@ -17630,7 +17399,7 @@
       <c r="CA24" s="3"/>
       <c r="CB24" s="4"/>
     </row>
-    <row r="25" spans="1:80">
+    <row r="25" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>23</v>
       </c>
@@ -17748,7 +17517,7 @@
       <c r="CA25" s="3"/>
       <c r="CB25" s="4"/>
     </row>
-    <row r="26" spans="1:80">
+    <row r="26" spans="1:80" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>24</v>
       </c>
